--- a/Project/Individual/comparison_stats.xlsx
+++ b/Project/Individual/comparison_stats.xlsx
@@ -1,21 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanjun/Desktop/bmi206/Project/Individual/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57EA57A-11A4-F84A-9F57-35BA7FE7CEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>cms_threshold</t>
+  </si>
+  <si>
+    <t>dhs2baseline_beta</t>
+  </si>
+  <si>
+    <t>dhs2baseline_p</t>
+  </si>
+  <si>
+    <t>footprint2baseline_beta</t>
+  </si>
+  <si>
+    <t>footprint2baseline_p</t>
+  </si>
+  <si>
+    <t>dhs2footprint_beta</t>
+  </si>
+  <si>
+    <t>dhs2footprint_p</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +146,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +198,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,58 +443,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>cms_threshold</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dhs2baseline_beta</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dhs2baseline_p</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>footprint2baseline_beta</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>footprint2baseline_p</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dhs2footprint_beta</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>dhs2footprint_p</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="C2">
         <v>0.9999999999999396</v>
@@ -413,410 +501,378 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>-1.110223024625157e-16</v>
+        <v>-1.110223024625157E-16</v>
       </c>
       <c r="G2">
         <v>0.9999999999999748</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.009800994445352318</v>
+        <v>-9.8009944453523179E-3</v>
       </c>
       <c r="C3">
-        <v>6.818655080563261e-08</v>
+        <v>6.8186550805632606E-8</v>
       </c>
       <c r="D3">
-        <v>-0.01564242280785422</v>
+        <v>-1.5642422807854221E-2</v>
       </c>
       <c r="E3">
-        <v>6.001071123466223e-05</v>
+        <v>6.0010711234662233E-5</v>
       </c>
       <c r="F3">
-        <v>-0.005841428362501899</v>
+        <v>-5.8414283625018992E-3</v>
       </c>
       <c r="G3">
         <v>0.1132749770306052</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.01758618345199547</v>
+        <v>-1.7586183451995471E-2</v>
       </c>
       <c r="C4">
-        <v>8.198173100798708e-12</v>
+        <v>8.1981731007987077E-12</v>
       </c>
       <c r="D4">
-        <v>-0.004136363938512577</v>
+        <v>-4.1363639385125772E-3</v>
       </c>
       <c r="E4">
-        <v>0.2322607601306196</v>
+        <v>0.23226076013061961</v>
       </c>
       <c r="F4">
-        <v>0.0134498195134829</v>
+        <v>1.34498195134829E-2</v>
       </c>
       <c r="G4">
-        <v>0.0008813604455192532</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+        <v>8.8136044551925319E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.01490610524582192</v>
+        <v>-1.4906105245821919E-2</v>
       </c>
       <c r="C5">
-        <v>8.561549744666877e-11</v>
+        <v>8.561549744666877E-11</v>
       </c>
       <c r="D5">
-        <v>0.01614773197709352</v>
+        <v>1.6147731977093519E-2</v>
       </c>
       <c r="E5">
-        <v>0.0007925141182183083</v>
+        <v>7.9251411821830832E-4</v>
       </c>
       <c r="F5">
-        <v>0.03105383722291544</v>
+        <v>3.105383722291544E-2</v>
       </c>
       <c r="G5">
-        <v>6.00527659069796e-08</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+        <v>6.0052765906979596E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009272660048511794</v>
+        <v>9.2726600485117938E-3</v>
       </c>
       <c r="C6">
-        <v>0.000185845940785797</v>
+        <v>1.85845940785797E-4</v>
       </c>
       <c r="D6">
-        <v>0.03231706139569468</v>
+        <v>3.231706139569468E-2</v>
       </c>
       <c r="E6">
-        <v>1.744348896335734e-07</v>
+        <v>1.744348896335734E-7</v>
       </c>
       <c r="F6">
-        <v>0.02304440134718289</v>
+        <v>2.3044401347182889E-2</v>
       </c>
       <c r="G6">
-        <v>7.165869188732755e-05</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+        <v>7.1658691887327552E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01091354009456402</v>
+        <v>1.0913540094564019E-2</v>
       </c>
       <c r="C7">
-        <v>1.541114843463362e-07</v>
+        <v>1.5411148434633621E-7</v>
       </c>
       <c r="D7">
-        <v>0.02311210817818654</v>
+        <v>2.3112108178186541E-2</v>
       </c>
       <c r="E7">
-        <v>0.0001735971035378554</v>
+        <v>1.735971035378554E-4</v>
       </c>
       <c r="F7">
-        <v>0.01219856808362252</v>
+        <v>1.219856808362252E-2</v>
       </c>
       <c r="G7">
-        <v>0.03636042208035892</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+        <v>3.6360422080358917E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008213146519622239</v>
+        <v>8.2131465196222386E-3</v>
       </c>
       <c r="C8">
-        <v>0.002867739947859827</v>
+        <v>2.8677399478598269E-3</v>
       </c>
       <c r="D8">
-        <v>0.006531077782975014</v>
+        <v>6.5310777829750144E-3</v>
       </c>
       <c r="E8">
-        <v>0.3133004596494072</v>
+        <v>0.31330045964940723</v>
       </c>
       <c r="F8">
-        <v>-0.001682068736647224</v>
+        <v>-1.682068736647224E-3</v>
       </c>
       <c r="G8">
-        <v>0.8072385209503389</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+        <v>0.80723852095033888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.007609295757090351</v>
+        <v>-7.6092957570903508E-3</v>
       </c>
       <c r="C9">
-        <v>0.04581215688817208</v>
+        <v>4.5812156888172077E-2</v>
       </c>
       <c r="D9">
-        <v>0.01891152551754727</v>
+        <v>1.8911525517547271E-2</v>
       </c>
       <c r="E9">
-        <v>0.05179558664766677</v>
+        <v>5.1795586647666772E-2</v>
       </c>
       <c r="F9">
-        <v>0.02652082127463762</v>
+        <v>2.6520821274637622E-2</v>
       </c>
       <c r="G9">
-        <v>0.01172679305930908</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+        <v>1.1726793059309079E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.00343653368307173</v>
+        <v>-3.4365336830717301E-3</v>
       </c>
       <c r="C10">
-        <v>0.4309037990504441</v>
+        <v>0.43090379905044413</v>
       </c>
       <c r="D10">
-        <v>0.01050276231458858</v>
+        <v>1.050276231458858E-2</v>
       </c>
       <c r="E10">
         <v>0.3665891613149963</v>
       </c>
       <c r="F10">
-        <v>0.01393929599766031</v>
+        <v>1.3939295997660309E-2</v>
       </c>
       <c r="G10">
-        <v>0.2617845581909274</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+        <v>0.26178455819092739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.01516151367315288</v>
+        <v>-1.516151367315288E-2</v>
       </c>
       <c r="C11">
-        <v>0.00392146448674687</v>
+        <v>3.9214644867468697E-3</v>
       </c>
       <c r="D11">
-        <v>-0.001147046093959769</v>
+        <v>-1.1470460939597691E-3</v>
       </c>
       <c r="E11">
-        <v>0.9333162656119132</v>
+        <v>0.93331626561191317</v>
       </c>
       <c r="F11">
-        <v>0.01401446757919311</v>
+        <v>1.4014467579193109E-2</v>
       </c>
       <c r="G11">
-        <v>0.3377322608703682</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+        <v>0.33773226087036817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0670735156920732</v>
+        <v>-6.7073515692073205E-2</v>
       </c>
       <c r="C12">
-        <v>2.757190264250136e-12</v>
+        <v>2.7571902642501361E-12</v>
       </c>
       <c r="D12">
-        <v>0.003974319256841219</v>
+        <v>3.9743192568412189E-3</v>
       </c>
       <c r="E12">
-        <v>0.8237316994825035</v>
+        <v>0.82373169948250347</v>
       </c>
       <c r="F12">
-        <v>0.07104783494891442</v>
+        <v>7.1047834948914423E-2</v>
       </c>
       <c r="G12">
-        <v>0.0005272490288985477</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+        <v>5.2724902889854765E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.07480139930451779</v>
+        <v>-7.4801399304517791E-2</v>
       </c>
       <c r="C13">
-        <v>4.41727482417446e-10</v>
+        <v>4.4172748241744602E-10</v>
       </c>
       <c r="D13">
-        <v>-0.01214940540509923</v>
+        <v>-1.214940540509923E-2</v>
       </c>
       <c r="E13">
-        <v>0.4841359455232521</v>
+        <v>0.48413594552325212</v>
       </c>
       <c r="F13">
-        <v>0.06265199389941856</v>
+        <v>6.2651993899418557E-2</v>
       </c>
       <c r="G13">
-        <v>0.001987241114729373</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+        <v>1.987241114729373E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0553738731897353</v>
+        <v>-5.5373873189735301E-2</v>
       </c>
       <c r="C14">
-        <v>8.389757171591769e-05</v>
+        <v>8.389757171591769E-5</v>
       </c>
       <c r="D14">
-        <v>-0.1512803100482409</v>
+        <v>-0.15128031004824091</v>
       </c>
       <c r="E14">
-        <v>1.844702238251757e-05</v>
+        <v>1.844702238251757E-5</v>
       </c>
       <c r="F14">
-        <v>-0.09590643685850564</v>
+        <v>-9.5906436858505639E-2</v>
       </c>
       <c r="G14">
-        <v>0.004713160701237984</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+        <v>4.7131607012379836E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.09181642637574261</v>
+        <v>-9.181642637574261E-2</v>
       </c>
       <c r="C15">
-        <v>2.743167278234852e-09</v>
+        <v>2.743167278234852E-9</v>
       </c>
       <c r="D15">
-        <v>-0.2706868974159122</v>
+        <v>-0.27068689741591218</v>
       </c>
       <c r="E15">
-        <v>3.836930784432826e-07</v>
+        <v>3.8369307844328258E-7</v>
       </c>
       <c r="F15">
-        <v>-0.1788704710401696</v>
+        <v>-0.17887047104016959</v>
       </c>
       <c r="G15">
-        <v>0.000207934895177684</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+        <v>2.0793489517768399E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
       </c>
       <c r="B16">
         <v>-0.1398100341608666</v>
       </c>
       <c r="C16">
-        <v>9.790275210923185e-09</v>
+        <v>9.790275210923185E-9</v>
       </c>
       <c r="D16">
-        <v>-0.2783810583976898</v>
+        <v>-0.27838105839768978</v>
       </c>
       <c r="E16">
-        <v>1.021007773265433e-05</v>
+        <v>1.021007773265433E-5</v>
       </c>
       <c r="F16">
-        <v>-0.1385710242368232</v>
+        <v>-0.13857102423682319</v>
       </c>
       <c r="G16">
-        <v>0.01667579318261748</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+        <v>1.6675793182617481E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.2410130157367436</v>
+        <v>-0.24101301573674361</v>
       </c>
       <c r="C17">
-        <v>1.50031280203202e-12</v>
+        <v>1.50031280203202E-12</v>
       </c>
       <c r="D17">
-        <v>-0.9896766627635847</v>
+        <v>-0.98967666276358468</v>
       </c>
       <c r="E17">
-        <v>1.278189515568439e-08</v>
+        <v>1.2781895155684391E-8</v>
       </c>
       <c r="F17">
-        <v>-0.7486636470268411</v>
+        <v>-0.74866364702684107</v>
       </c>
       <c r="G17">
-        <v>2.068195911837799e-06</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+        <v>2.0681959118377991E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>-0.2920298915497335</v>
+        <v>-0.29202989154973352</v>
       </c>
       <c r="C18">
-        <v>7.21960200749831e-09</v>
+        <v>7.2196020074983103E-9</v>
       </c>
       <c r="D18">
-        <v>-0.9103409846828932</v>
+        <v>-0.91034098468289315</v>
       </c>
       <c r="E18">
-        <v>1.599346879353947e-06</v>
+        <v>1.5993468793539469E-6</v>
       </c>
       <c r="F18">
-        <v>-0.6183110931331597</v>
+        <v>-0.61831109313315968</v>
       </c>
       <c r="G18">
-        <v>0.0003844891651331629</v>
+        <v>3.8448916513316291E-4</v>
       </c>
     </row>
   </sheetData>
